--- a/bithumb_trade_price_rank_20250715_23.xlsx
+++ b/bithumb_trade_price_rank_20250715_23.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>544163741610.5019</t>
+          <t>539480873763.0495</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>196525536275.8013</t>
+          <t>196282355113.27484</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>163967009947.80316</t>
+          <t>165425579373.02243</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>129556781818.96536</t>
+          <t>129426771759.42729</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>108440153319.05035</t>
+          <t>107256577162.3333</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>90315159069.652</t>
+          <t>89300716498.90195</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>64932394704.02516</t>
+          <t>67689728360.69154</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>64848256848.24218</t>
+          <t>64352744804.220634</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>54243162521.446785</t>
+          <t>53946683322.30144</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>46489484766.216866</t>
+          <t>45245556685.9742</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>39312983705.62524</t>
+          <t>39536061114.370514</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>33583115291.252537</t>
+          <t>33121254459.884155</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>32822700106.814983</t>
+          <t>32774491622.579464</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>32600529558.09669</t>
+          <t>32264941329.4785</t>
         </is>
       </c>
     </row>
@@ -666,12 +666,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KRW-WLD</t>
+          <t>KRW-XPR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>26358794031.51247</t>
+          <t>26405145463.838295</t>
         </is>
       </c>
     </row>
